--- a/Results/低资源微调/spider-llama3B/40.xlsx
+++ b/Results/低资源微调/spider-llama3B/40.xlsx
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.915</v>
+        <v>0.891</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.767</v>
+        <v>0.744</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.575</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.361</v>
+        <v>0.355</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.705</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.863</v>
+        <v>0.831</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.673</v>
+        <v>0.646</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.431</v>
+        <v>0.437</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.319</v>
+        <v>0.337</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.621</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.93</v>
+        <v>0.915</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.903</v>
+        <v>0.891</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.82</v>
+        <v>0.838</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.904</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="1">
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.967</v>
+        <v>0.951</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.912</v>
+        <v>0.911</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.836</v>
+        <v>0.846</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.92</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1">
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.952</v>
+        <v>0.901</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.703</v>
+        <v>0.743</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.478</v>
+        <v>0.539</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.535</v>
+        <v>0.507</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.962</v>
+        <v>0.928</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.714</v>
+        <v>0.749</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.589</v>
+        <v>0.618</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.648</v>
+        <v>0.644</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.736</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.895</v>
+        <v>0.842</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.875</v>
+        <v>0.833</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.738</v>
+        <v>0.842</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.639</v>
+        <v>0.75</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.793</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="13" ht="17" customHeight="1">
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.842</v>
+        <v>0.789</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.781</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.738</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.59</v>
+        <v>0.717</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.744</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1">
@@ -719,16 +719,16 @@
         <v>0.741</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.886</v>
+        <v>0.859</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.837</v>
+        <v>0.881</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.897</v>
+        <v>0.895</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.859</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1">
@@ -741,13 +741,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.989</v>
+        <v>0.984</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>0.982</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.907</v>
+        <v>0.914</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>0.977</v>
@@ -766,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.304</v>
+        <v>0.417</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.6</v>
+        <v>0.536</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.415</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.927</v>
+        <v>0.911</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.914</v>
+        <v>0.905</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.76</v>
+        <v>0.797</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.82</v>
+        <v>0.792</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.872</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.911</v>
+        <v>0.907</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.854</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.839</v>
+        <v>0.822</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.633</v>
+        <v>0.657</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1">
@@ -838,19 +838,19 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.948</v>
+        <v>0.944</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.863</v>
+        <v>0.827</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.839</v>
+        <v>0.822</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.645</v>
+        <v>0.663</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.844</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1">
@@ -863,16 +863,16 @@
         <v>0.926</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.714</v>
+        <v>0.731</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.457</v>
+        <v>0.511</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.404</v>
+        <v>0.394</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>0.651</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="22" ht="17" customHeight="1">
@@ -882,19 +882,19 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.954</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.725</v>
+        <v>0.736</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.585</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.695</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="1">
@@ -904,19 +904,19 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.789</v>
+        <v>0.714</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.795</v>
+        <v>0.821</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.494</v>
+        <v>0.57</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.708</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1">
@@ -926,19 +926,19 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.729</v>
+        <v>0.669</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>0.795</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>0.456</v>
+        <v>0.544</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>0.664</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="25" ht="17" customHeight="1">
@@ -951,16 +951,16 @@
         <v>0.909</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.827</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.655</v>
+        <v>0.673</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.658</v>
+        <v>0.646</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>0.736</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="26" ht="17" customHeight="1">
@@ -973,16 +973,16 @@
         <v>0.996</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.989</v>
+        <v>0.995</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.965</v>
+        <v>0.971</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.948</v>
+        <v>0.968</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>0.98</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1">
@@ -998,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>0.167</v>
+        <v>0.238</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>0.441</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>0.289</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="28" ht="17" customHeight="1">
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.953</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.873</v>
+        <v>0.831</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.655</v>
+        <v>0.678</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.633</v>
+        <v>0.62</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>0.794</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1">
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.921</v>
+        <v>0.911</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.878</v>
+        <v>0.848</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>0.885</v>
+        <v>0.875</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0.714</v>
+        <v>0.736</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>0.865</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="31" ht="17" customHeight="1">
@@ -1070,19 +1070,19 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.957</v>
+        <v>0.947</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.887</v>
+        <v>0.867</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>0.885</v>
+        <v>0.875</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>0.728</v>
+        <v>0.743</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="32" ht="17" customHeight="1">
@@ -1092,19 +1092,19 @@
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.913</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.708</v>
+        <v>0.737</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.467</v>
+        <v>0.525</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.461</v>
+        <v>0.443</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>0.67</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="33" ht="17" customHeight="1">
@@ -1114,19 +1114,19 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.948</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.719</v>
+        <v>0.742</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>0.576</v>
+        <v>0.601</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>0.715</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="34" ht="17" customHeight="1">
@@ -1136,16 +1136,16 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.872</v>
+        <v>0.821</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.83</v>
+        <v>0.769</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.765</v>
+        <v>0.831</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.647</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>0.749</v>
@@ -1158,19 +1158,19 @@
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.821</v>
+        <v>0.769</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.767</v>
+        <v>0.721</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.765</v>
+        <v>0.805</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>0.514</v>
+        <v>0.619</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>0.702</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="36" ht="17" customHeight="1">
@@ -1183,16 +1183,16 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.855</v>
+        <v>0.836</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>0.735</v>
+        <v>0.763</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.759</v>
+        <v>0.75</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>0.793</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="37" ht="17" customHeight="1">
@@ -1205,16 +1205,16 @@
         <v>0.998</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.973</v>
+        <v>0.976</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.927</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>0.979</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="38" ht="17" customHeight="1">
@@ -1230,13 +1230,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.215</v>
+        <v>0.303</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.508</v>
+        <v>0.484</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>0.341</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="39" ht="17" customHeight="1">
@@ -1246,19 +1246,19 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.93</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.893</v>
+        <v>0.866</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.704</v>
+        <v>0.733</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.714</v>
+        <v>0.696</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0.831</v>
+        <v>0.822</v>
       </c>
     </row>
   </sheetData>
